--- a/output/google_maps_data_Restoran_Sleman.xlsx
+++ b/output/google_maps_data_Restoran_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Restoran+Sleman/@-7.8053355,110.3375984,13z/data=!4m2!2m1!6e5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>0811-255-511</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>-7.747528</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.747528</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.338362</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Westlake+Resto/@-7.747528,110.2662641,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5884c11dc483:0x46a2b119fcb720b5!8m2!3d-7.747528!4d110.3383619!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F1ptzfd646?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/The+Westlake+Resto/@-7.747528,110.2662641,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5884c11dc483:0x46a2b119fcb720b5!8m2!3d-7.747528!4d110.3383619!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F1ptzfd646?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>14 jam lalu</t>
         </is>
@@ -575,25 +568,24 @@
           <t>(0274) 868170</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.705381</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.705381</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.361164</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jejamuran/@-7.747528,110.2662641,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5f4b00000001:0xb991824588eb34e1!8m2!3d-7.7053814!4d110.3611638!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1pzq550f5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jejamuran/@-7.747528,110.2662641,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5f4b00000001:0xb991824588eb34e1!8m2!3d-7.7053814!4d110.3611638!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1pzq550f5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -620,25 +612,24 @@
           <t>(0274) 545143</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.775909</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.775909</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.346354</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Banyu+Mili+Resto/@-7.747528,110.2662641,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58168239ab33:0x90db373e98c46e0e!8m2!3d-7.7759095!4d110.3463541!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgESc2VhZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F1hcb0mkcm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Banyu+Mili+Resto/@-7.747528,110.2662641,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58168239ab33:0x90db373e98c46e0e!8m2!3d-7.7759095!4d110.3463541!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgESc2VhZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F1hcb0mkcm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -661,25 +652,24 @@
           <t>(0274) 4533289</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.731933</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.731933</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.381576</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasta+Banget+Signature/@-7.7319326,110.3094777,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58fc771d3f6b:0x4534f2673a3c3bf7!8m2!3d-7.7319326!4d110.3815755!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgESaXRhbGlhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1pzxk_cmv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasta+Banget+Signature/@-7.7319326,110.3094777,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58fc771d3f6b:0x4534f2673a3c3bf7!8m2!3d-7.7319326!4d110.3815755!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgESaXRhbGlhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1pzxk_cmv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -702,25 +692,24 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.741969</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.741969</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.373591</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sasanti+Restaurant/@-7.7319326,110.3094777,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5edb1096c073:0x2238917e9cc0492a!8m2!3d-7.741969!4d110.3735913!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1ptxb4dvv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sasanti+Restaurant/@-7.7319326,110.3094777,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5edb1096c073:0x2238917e9cc0492a!8m2!3d-7.741969!4d110.3735913!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1ptxb4dvv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -747,25 +736,24 @@
           <t>0851-0048-9732</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.721264</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.721264</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.265727</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gubug+Makan+Mang+Engking+Pusat/@-7.7212635,110.1936288,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7af69dd28f9dd7:0x5dc2d36cfad5e892!8m2!3d-7.7212635!4d110.2657266!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgESc2VhZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11fx7m0cwv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gubug+Makan+Mang+Engking+Pusat/@-7.7212635,110.1936288,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7af69dd28f9dd7:0x5dc2d36cfad5e892!8m2!3d-7.7212635!4d110.2657266!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgESc2VhZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11fx7m0cwv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>12 jam lalu</t>
         </is>
@@ -788,25 +776,24 @@
           <t>0851-0044-3035</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.777918</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.777918</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.379776</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Sagan/@-7.777918,110.307678,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59544224e1b5:0x365766c4d68021d9!8m2!3d-7.777918!4d110.3797758!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11h_crwm60?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Sagan/@-7.777918,110.307678,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59544224e1b5:0x365766c4d68021d9!8m2!3d-7.777918!4d110.3797758!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11h_crwm60?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -833,25 +820,24 @@
           <t>0877-3923-8010</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.77688</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.77688</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.381819</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hikaru+Dining+Yogyakarta/@-7.777918,110.307678,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59cbd2d84cbb:0x2d91596da18a517d!8m2!3d-7.7768797!4d110.3818189!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgETamFwYW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b5pk27tv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hikaru+Dining+Yogyakarta/@-7.777918,110.307678,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59cbd2d84cbb:0x2d91596da18a517d!8m2!3d-7.7768797!4d110.3818189!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgETamFwYW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b5pk27tv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -878,25 +864,24 @@
           <t>0851-6139-2689</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>-7.722177</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.722177</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.360803</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TjeMaRa+Noodle+Bar+-+Sleman/@-7.7221775,110.2887047,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59574447eb37:0xdeabf94b9bad5e4d!8m2!3d-7.7221775!4d110.3608025!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F11rg8mmmd5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TjeMaRa+Noodle+Bar+-+Sleman/@-7.7221775,110.2887047,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59574447eb37:0xdeabf94b9bad5e4d!8m2!3d-7.7221775!4d110.3608025!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F11rg8mmmd5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -923,25 +908,24 @@
           <t>(0274) 867978</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.728415</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.728415</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.363889</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Restoran+Taman+Pringsewu/@-7.7221775,110.2887047,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58ee33426a47:0xaa4d764e6b4abf38!8m2!3d-7.728415!4d110.3638894!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F12ml2lfdl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Restoran+Taman+Pringsewu/@-7.7221775,110.2887047,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58ee33426a47:0xaa4d764e6b4abf38!8m2!3d-7.728415!4d110.3638894!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F12ml2lfdl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>4 jam lalu</t>
         </is>
@@ -968,25 +952,24 @@
           <t>0817-556-666</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-7.735968</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.735968</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.399104</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sate+Ratu/@-7.7359684,110.3270057,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58f6f39bbbad:0xd9f42acc2dd08934!8m2!3d-7.7359684!4d110.3991035!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b81jfjk3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sate+Ratu/@-7.7359684,110.3270057,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58f6f39bbbad:0xd9f42acc2dd08934!8m2!3d-7.7359684!4d110.3991035!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b81jfjk3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>50 menit lalu</t>
         </is>
@@ -1013,25 +996,24 @@
           <t>0813-3752-3726</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.776215</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.776215</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.391025</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nanamia+Pizzeria+Jogja+(North+Area)/@-7.7359684,110.3270057,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59c7d0f0c797:0x485cfaac95e66563!8m2!3d-7.7762145!4d110.3910246!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgESaXRhbGlhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1tvrfh17?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Nanamia+Pizzeria+Jogja+(North+Area)/@-7.7359684,110.3270057,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59c7d0f0c797:0x485cfaac95e66563!8m2!3d-7.7762145!4d110.3910246!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgESaXRhbGlhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F1tvrfh17?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -1058,25 +1040,24 @@
           <t>(0274) 2800088</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>-7.783576</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.783576</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.400549</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMARA+Restaurant/@-7.7359684,110.3270057,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59c2c62247ab:0xfc335694ea642410!8m2!3d-7.7835759!4d110.4005489!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11dfp8cp09?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1099,25 +1080,24 @@
           <t>0813-2751-9075</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.726899</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.726899</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.366733</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Makan+Kebon+Ndhelik+Pusat/@-7.7359684,110.3270057,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58c52a2cedd3:0xa0d090fe027995dd!8m2!3d-7.7268986!4d110.3667333!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11b6tj518h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Makan+Kebon+Ndhelik+Pusat/@-7.7359684,110.3270057,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58c52a2cedd3:0xa0d090fe027995dd!8m2!3d-7.7268986!4d110.3667333!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11b6tj518h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1140,25 +1120,24 @@
           <t>0822-3131-2004</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.670343</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.670343</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.421306</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Kopi+Klotok/@-7.6703429,110.3492083,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5e80a3df1d61:0x3c02536343f1185c!8m2!3d-7.6703429!4d110.4213061!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11c3vwkspj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Kopi+Klotok/@-7.6703429,110.3492083,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5e80a3df1d61:0x3c02536343f1185c!8m2!3d-7.6703429!4d110.4213061!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11c3vwkspj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>39 menit lalu</t>
         </is>
@@ -1185,25 +1164,24 @@
           <t>(0274) 888733</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>-7.740127</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.740127</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.375959</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ikan+Bakar+Cianjur/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5928c2ce35bf:0x5573a20c8049e3c4!8m2!3d-7.7401274!4d110.3759585!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEUc3VuZGFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1jky49ryd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ikan+Bakar+Cianjur/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5928c2ce35bf:0x5573a20c8049e3c4!8m2!3d-7.7401274!4d110.3759585!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEUc3VuZGFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1jky49ryd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>20 jam lalu</t>
         </is>
@@ -1230,25 +1208,24 @@
           <t>(0274) 6000888</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>-7.761851</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.761851</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.398435</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yogyakarta+Kitchen+by+Marriott/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59a30f954011:0x97519fd73a122619!8m2!3d-7.7618506!4d110.3984353!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgERYnVmZmV0X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gd6x4mlp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yogyakarta+Kitchen+by+Marriott/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59a30f954011:0x97519fd73a122619!8m2!3d-7.7618506!4d110.3984353!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgERYnVmZmV0X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gd6x4mlp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1271,25 +1248,24 @@
           <t>0811-2542-566</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>-7.718703</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.718703</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.348745</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PURI+MATARAM+Resto+%26+Wahana+Wisata/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a596529166f0b:0x1a58a1f96d78341b!8m2!3d-7.7187027!4d110.3487454!15sCg9SZXN0b3JhbiBTbGVtYW6SARFyZWNyZWF0aW9uX2NlbnRlcuABAA!16s%2Fg%2F11h1vds3kl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PURI+MATARAM+Resto+%26+Wahana+Wisata/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a596529166f0b:0x1a58a1f96d78341b!8m2!3d-7.7187027!4d110.3487454!15sCg9SZXN0b3JhbiBTbGVtYW6SARFyZWNyZWF0aW9uX2NlbnRlcuABAA!16s%2Fg%2F11h1vds3kl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1312,25 +1288,24 @@
           <t>(0274) 4463983</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.731205</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.731205</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.381271</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ikan+Bakar+Jimbaran/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a592055b40d51:0xa2c8f6e5707c8b1c!8m2!3d-7.7312046!4d110.3812708!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgESc2VhZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F1hm5m9mlv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ikan+Bakar+Jimbaran/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a592055b40d51:0xa2c8f6e5707c8b1c!8m2!3d-7.7312046!4d110.3812708!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgESc2VhZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F1hm5m9mlv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>17 jam lalu</t>
         </is>
@@ -1349,25 +1324,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>-7.720015</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.720015</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.361476</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Consulate+Bistro+Sleman+City+Hall/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59098892d839:0x628998617f6f5440!8m2!3d-7.7200149!4d110.3614759!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEGYmlzdHJv4AEA!16s%2Fg%2F11hyxn7z4r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Consulate+Bistro+Sleman+City+Hall/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59098892d839:0x628998617f6f5440!8m2!3d-7.7200149!4d110.3614759!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEGYmlzdHJv4AEA!16s%2Fg%2F11hyxn7z4r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -1394,25 +1368,24 @@
           <t>(0274) 588294</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>-7.762436</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.762436</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.39414</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gadjah+Wong+Restaurant/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59a4c2cf31ff:0x192d59bcb411178a!8m2!3d-7.7624362!4d110.39414!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgERZmFtaWx5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1hd_2cglq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gadjah+Wong+Restaurant/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59a4c2cf31ff:0x192d59bcb411178a!8m2!3d-7.7624362!4d110.39414!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgERZmFtaWx5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1hd_2cglq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1439,25 +1412,24 @@
           <t>0878-3467-8188</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.4</v>
+        <v>-7.735718</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.735718</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.399179</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Cimoll+Resto+-+Condongcatur/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5915a012dbf1:0x57c8d57c63d786dd!8m2!3d-7.7357184!4d110.399179!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEUc3VuZGFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11hcyv912y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Cimoll+Resto+-+Condongcatur/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5915a012dbf1:0x57c8d57c63d786dd!8m2!3d-7.7357184!4d110.399179!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEUc3VuZGFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11hcyv912y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1480,25 +1452,24 @@
           <t>0877-2873-1714</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.8</v>
+        <v>-7.721963</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.721963</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.335884</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BABILONIA+RESTO+est+2018/@-7.7219633,110.2637857,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59de954c9349:0x2b59d2c5b0d8b6d!8m2!3d-7.7219633!4d110.3358835!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11rms9wj5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BABILONIA+RESTO+est+2018/@-7.7219633,110.2637857,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59de954c9349:0x2b59d2c5b0d8b6d!8m2!3d-7.7219633!4d110.3358835!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11rms9wj5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1525,25 +1496,24 @@
           <t>0811-2630-331</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.747687</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.747687</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.368344</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/De+Tropen+Jogja+Kitchen/@-7.7219633,110.2637857,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a596ae1e78de3:0x8efb61920ed473a7!8m2!3d-7.7476871!4d110.3683435!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11nl6zk8fj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/De+Tropen+Jogja+Kitchen/@-7.7219633,110.2637857,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a596ae1e78de3:0x8efb61920ed473a7!8m2!3d-7.7476871!4d110.3683435!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11nl6zk8fj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1566,25 +1536,24 @@
           <t>(0274) 4546968</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>-7.702772</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.702772</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.413655</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wedangan+Kampoeng/@-7.702772,110.3415572,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5eb024d89f2f:0x3c7689f96948e345!8m2!3d-7.702772!4d110.413655!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b7hpctf2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wedangan+Kampoeng/@-7.702772,110.3415572,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5eb024d89f2f:0x3c7689f96948e345!8m2!3d-7.702772!4d110.413655!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b7hpctf2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>20 jam lalu</t>
         </is>
@@ -1611,25 +1580,24 @@
           <t>(0274) 2888136</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.8</v>
+        <v>-7.72056</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.72056</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.362892</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Imperial+Kitchen+%26+Dimsum+-+Sleman+City+Hall/@-7.7205599,110.2907945,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a592b4ad34bc9:0x16f96812c2a79f76!8m2!3d-7.7205599!4d110.3628923!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11kjfjh2cw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Imperial+Kitchen+%26+Dimsum+-+Sleman+City+Hall/@-7.7205599,110.2907945,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a592b4ad34bc9:0x16f96812c2a79f76!8m2!3d-7.7205599!4d110.3628923!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11kjfjh2cw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -1652,25 +1620,24 @@
           <t>0857-4223-3400</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.8</v>
+        <v>-7.80611</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.80611</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.284442</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Joglo+Resodinomo/@-7.8061101,110.2123444,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7af94208d5b6fd:0x18cceb2f3c011cfc!8m2!3d-7.8061101!4d110.2844422!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11f5h7m17p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Joglo+Resodinomo/@-7.8061101,110.2123444,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7af94208d5b6fd:0x18cceb2f3c011cfc!8m2!3d-7.8061101!4d110.2844422!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEVaW5kb25lc2lhbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11f5h7m17p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1697,25 +1664,24 @@
           <t>0821-9043-1561</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.6</v>
+        <v>-7.768084</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.768084</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.494066</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Suwatu+By+Mil+%26+Bay/@-7.7680839,110.4219681,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5b8cd67886e3:0x46ac848c7263e6ad!8m2!3d-7.7680839!4d110.4940659!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11llpn_jqw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Suwatu+By+Mil+%26+Bay/@-7.7680839,110.4219681,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5b8cd67886e3:0x46ac848c7263e6ad!8m2!3d-7.7680839!4d110.4940659!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11llpn_jqw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1738,25 +1704,24 @@
           <t>0857-2982-8282</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.2</v>
+        <v>-7.767952</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.767952</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.30441</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kepik+Sawah/@-7.767952,110.2323122,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7af7b7814e2b4b:0xdd9c27cb8fe40bca!8m2!3d-7.767952!4d110.30441!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b6s16dy1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kepik+Sawah/@-7.767952,110.2323122,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7af7b7814e2b4b:0xdd9c27cb8fe40bca!8m2!3d-7.767952!4d110.30441!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b6s16dy1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1779,25 +1744,24 @@
           <t>0877-7557-4477</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.717248</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.717248</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.346815</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Asurarich/@-7.7172478,110.2747167,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a591fe08afd11:0x9d8c35e0d45d64b2!8m2!3d-7.7172478!4d110.3468145!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11qm381270?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Asurarich/@-7.7172478,110.2747167,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a591fe08afd11:0x9d8c35e0d45d64b2!8m2!3d-7.7172478!4d110.3468145!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11qm381270?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1824,25 +1788,24 @@
           <t>0852-9038-3528</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.6</v>
+        <v>-7.782267</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.782267</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.438034</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kopi+Legi+Garden+Resto/@-7.7822673,110.3659363,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5b834a035605:0x806c9411c1289477!8m2!3d-7.7822673!4d110.4380341!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11fn3w40c8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kopi+Legi+Garden+Resto/@-7.7822673,110.3659363,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5b834a035605:0x806c9411c1289477!8m2!3d-7.7822673!4d110.4380341!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11fn3w40c8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>5 jam lalu</t>
         </is>
@@ -1869,25 +1832,24 @@
           <t>0811-2959-097</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>-7.787057</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.787057</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.33745</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayom+Jogja/@-7.7870572,110.2653526,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59170e3ab1a7:0xd7ea9242c49b29d9!8m2!3d-7.7870572!4d110.3374504!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11qq5r4305?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayom+Jogja/@-7.7870572,110.2653526,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a59170e3ab1a7:0xd7ea9242c49b29d9!8m2!3d-7.7870572!4d110.3374504!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11qq5r4305?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -1910,25 +1872,24 @@
           <t>0821-3525-8282</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.4</v>
+        <v>-7.721437</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.721437</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.348608</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kampung+Flory+Jogja+Kuliner+Bali+nDeso/@-7.721437,110.2765105,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58b134f8e311:0xd8d3fc1ebb91f78c!8m2!3d-7.721437!4d110.3486083!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11fx9cr8j6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kampung+Flory+Jogja+Kuliner+Bali+nDeso/@-7.721437,110.2765105,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58b134f8e311:0xd8d3fc1ebb91f78c!8m2!3d-7.721437!4d110.3486083!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11fx9cr8j6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1951,25 +1912,24 @@
           <t>0823-9325-0708</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.7</v>
+        <v>-7.729798</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.729798</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.333725</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/De+Sri+Garden+%26+Resto/@-7.721437,110.2765105,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5986ba5afbab:0xfd0e05599e349168!8m2!3d-7.7297981!4d110.333725!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11k1jcfmd1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/De+Sri+Garden+%26+Resto/@-7.721437,110.2765105,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5986ba5afbab:0xfd0e05599e349168!8m2!3d-7.7297981!4d110.333725!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11k1jcfmd1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1988,25 +1948,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.6</v>
+        <v>-7.716437</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.716437</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.344419</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Makan+Gedhek+Pangukan+Mbah+Muh/@-7.721437,110.2765105,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58b2eba88f83:0x562d049af807de26!8m2!3d-7.7164367!4d110.3444193!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11f15h1_c2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Makan+Gedhek+Pangukan+Mbah+Muh/@-7.721437,110.2765105,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58b2eba88f83:0x562d049af807de26!8m2!3d-7.7164367!4d110.3444193!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11f15h1_c2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -2029,25 +1988,24 @@
           <t>0812-2900-8789</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.4</v>
+        <v>-7.769873</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.769873</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.464066</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lemah+Ledok+Garden+Resto/@-7.769873,110.391968,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5a67bbb8dc75:0xca448098832b79e8!8m2!3d-7.769873!4d110.4640658!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgERZmFtaWx5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11ymjswyv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lemah+Ledok+Garden+Resto/@-7.769873,110.391968,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5a67bbb8dc75:0xca448098832b79e8!8m2!3d-7.769873!4d110.4640658!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgERZmFtaWx5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11ymjswyv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2070,25 +2028,24 @@
           <t>0895-2293-5560</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.6</v>
+        <v>-7.715119</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.715119</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.335964</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Griya+DEN+DJOYO/@-7.7151194,110.2638663,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5f2d911601d5:0xcc2eda8a7d9d6187!8m2!3d-7.7151194!4d110.3359641!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11h5vz5q7f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Griya+DEN+DJOYO/@-7.7151194,110.2638663,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5f2d911601d5:0xcc2eda8a7d9d6187!8m2!3d-7.7151194!4d110.3359641!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11h5vz5q7f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2111,25 +2068,24 @@
           <t>0878-4579-1321</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>-7.725539</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.725539</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.333276</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gubuk+Makan+Iwak+Kalen+Cebongan/@-7.7151194,110.2638663,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58a7a0ab343b:0x9552ad45839eb075!8m2!3d-7.7255389!4d110.3332758!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgERZmFtaWx5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11cn3pq_ys?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gubuk+Makan+Iwak+Kalen+Cebongan/@-7.7151194,110.2638663,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58a7a0ab343b:0x9552ad45839eb075!8m2!3d-7.7255389!4d110.3332758!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgERZmFtaWx5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11cn3pq_ys?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2152,25 +2108,24 @@
           <t>0813-9214-4526</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>-7.760932</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.760932</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.447046</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Soto+Bathok+Mbah+Katro/@-7.7609317,110.3749483,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5a377f9daf43:0xcd38d6da90007b86!8m2!3d-7.7609317!4d110.4470461!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEPc290b19yZXN0YXVyYW504AEA!16s%2Fg%2F11b7lpdj39?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Soto+Bathok+Mbah+Katro/@-7.7609317,110.3749483,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5a377f9daf43:0xcd38d6da90007b86!8m2!3d-7.7609317!4d110.4470461!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEPc290b19yZXN0YXVyYW504AEA!16s%2Fg%2F11b7lpdj39?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>31 menit lalu</t>
         </is>
